--- a/import_data/excel_test.xlsx
+++ b/import_data/excel_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frankie\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D084C36B-160C-48B4-8B99-38C97CB33CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB313AC-3DAB-436E-8F26-FBDDC52CAE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>aaaabbbb</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>eeeeffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +70,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +106,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -361,47 +394,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="19.4140625" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="1">
         <v>54545451</v>
       </c>
-      <c r="C1">
+      <c r="C2" s="1">
         <v>9991</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="1">
         <v>54545452</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="1">
         <v>9992</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="1">
         <v>54545453</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="1">
         <v>9993</v>
       </c>
     </row>

--- a/import_data/excel_test.xlsx
+++ b/import_data/excel_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frankie\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA\workspace_idea\dadal-cloud-branch\import_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB313AC-3DAB-436E-8F26-FBDDC52CAE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA6F015-7CF4-4CAA-8003-5338CC761F41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1632" yWindow="1176" windowWidth="20640" windowHeight="10932" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>aaaabbbb</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,13 +110,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,20 +404,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="19.4140625" customWidth="1"/>
-    <col min="3" max="3" width="14.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -417,8 +428,11 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +442,11 @@
       <c r="C2" s="1">
         <v>9991</v>
       </c>
+      <c r="D2" s="4">
+        <v>44197</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -439,8 +456,11 @@
       <c r="C3" s="1">
         <v>9992</v>
       </c>
+      <c r="D3" s="4">
+        <v>44198</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -449,6 +469,9 @@
       </c>
       <c r="C4" s="1">
         <v>9993</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44199</v>
       </c>
     </row>
   </sheetData>
